--- a/biology/Zoologie/Gallimimus/Gallimimus.xlsx
+++ b/biology/Zoologie/Gallimimus/Gallimimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallimimus bullatus
 Gallimimus est un genre fossile de dinosaures ornithomimosauriens de grande taille de la famille des ornithomimidés ayant vécu à la fin du Crétacé (Maastrichtien inférieur) et découvert dans la formation de Nemegt en Mongolie.
-Une seule espèce est rattachée au genre, Gallimimus bullatus, décrite en 1972 par les paléontologues Halszka Osmólska, Ewa Wanda Roniewicz (d) et Rinchen Barsbold[1].
+Une seule espèce est rattachée au genre, Gallimimus bullatus, décrite en 1972 par les paléontologues Halszka Osmólska, Ewa Wanda Roniewicz (d) et Rinchen Barsbold.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallimimus signifie « qui imite la poule ». 
 </t>
@@ -544,9 +558,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des fossiles ont été trouvés au début des années 1970 dans le désert de Gobi en Mongolie. La seule espèce connue est Gallimimus bullatus. Une autre espèce du Sud-Est de la Mongolie, appelée de façon informelle « Gallimimus mongoliensis » n'a jamais été clairement référencée. Une étude en 2006, liée à une réanalyse complète du squelette, a conclu qu'il pourrait s'agir d'un nouveau genre d'Ornithomimidae[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des fossiles ont été trouvés au début des années 1970 dans le désert de Gobi en Mongolie. La seule espèce connue est Gallimimus bullatus. Une autre espèce du Sud-Est de la Mongolie, appelée de façon informelle « Gallimimus mongoliensis » n'a jamais été clairement référencée. Une étude en 2006, liée à une réanalyse complète du squelette, a conclu qu'il pourrait s'agir d'un nouveau genre d'Ornithomimidae.
 </t>
         </is>
       </c>
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taille
-Avec une longueur totale pouvant atteindre de 4 à 6 mètres selon les auteurs[3],[4], c'était l'un des plus grands ornithomimosauriens derrière l'immense Deinocheirus et d'une taille proche de celle de Beishanlong[5].Gallimimus est connu d'après de nombreux spécimens, du jeune (50 cm de hauteur de hanches) à l'adulte (2 mètres).
-Morphologie
-Gallimimus ressemblait à un oiseau avec une petite tête, de grands yeux, un long cou, des membres antérieurs courts, de longs membres postérieurs et une longue queue. Une spécificité de Gallimimus est une « main » courte par rapport à la longueur de l'humérus comparée aux autres ornithomimidés. La queue servait de balancier. Les yeux étaient placés de chaque côté du crâne ce qui signifie qu'il n'avait pas de vision binoculaire.
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec une longueur totale pouvant atteindre de 4 à 6 mètres selon les auteurs c'était l'un des plus grands ornithomimosauriens derrière l'immense Deinocheirus et d'une taille proche de celle de Beishanlong.Gallimimus est connu d'après de nombreux spécimens, du jeune (50 cm de hauteur de hanches) à l'adulte (2 mètres).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gallimimus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gallimimus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gallimimus ressemblait à un oiseau avec une petite tête, de grands yeux, un long cou, des membres antérieurs courts, de longs membres postérieurs et une longue queue. Une spécificité de Gallimimus est une « main » courte par rapport à la longueur de l'humérus comparée aux autres ornithomimidés. La queue servait de balancier. Les yeux étaient placés de chaque côté du crâne ce qui signifie qu'il n'avait pas de vision binoculaire.
 Comme la plupart des oiseaux actuels, il avait les os creux.Gallimimus avait de longs membres, de longs tibias et métatarses, et des orteils courts ce qui suggère une bonne capacité de course sans toutefois pouvoir déterminer quelle était sa vitesse de pointe exacte.
 			Moulage du squelette de Gallimimus au Musée d'histoire naturelle de Londres.
 			Crâne de jeune Gallimimus au Muséum national d'histoire naturelle de Paris.
@@ -590,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Gallimimus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gallimimus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ce dinosaure apparait dans le film Jurassic Park de Steven Spielberg. On peut voir un groupe de Gallimimus fuir un Tyrannosaurus rex, qui les chasse et en tue un. Gallimimus apparaît également dans le deuxième volet, Le Monde perdu : Jurassic Park, dans la scène de chasse. Il apparaît aussi dans Jurassic World et Jurassic World: Fallen Kingdom.
 Il est présent dans les jeux :
@@ -625,35 +683,72 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Gallimimus</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gallimimus</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gallimimus Roniewicz (d) &amp; Barsbold, 1972[6].
-Cladogramme
-Le cladogramme, établi en 2014 par Yuong-Nam Lee, Rinchen Barsbold, Philip J. Currie, Yoshitsugu Kobayashi, Hang-Jae Lee, Pascal Godefroit, François O. Escuillié et Tsogtbaatar Chinzorig, évalue les principaux genres (les mieux documentés) d'ornithomimosauriens[7]. Il montre la position de Gallimimus  au sein de la famille des ornithomimidés :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gallimimus Roniewicz (d) &amp; Barsbold, 1972.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gallimimus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gallimimus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme, établi en 2014 par Yuong-Nam Lee, Rinchen Barsbold, Philip J. Currie, Yoshitsugu Kobayashi, Hang-Jae Lee, Pascal Godefroit, François O. Escuillié et Tsogtbaatar Chinzorig, évalue les principaux genres (les mieux documentés) d'ornithomimosauriens. Il montre la position de Gallimimus  au sein de la famille des ornithomimidés :
 </t>
         </is>
       </c>
